--- a/desisionTree_buTYA_2.xlsx
+++ b/desisionTree_buTYA_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
   <si>
     <t>R1</t>
   </si>
@@ -221,6 +221,24 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
   </si>
 </sst>
 </file>
@@ -673,7 +691,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,23 +700,23 @@
       <c r="A1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10">
-        <v>6</v>
+      <c r="B1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>67</v>
